--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -2155,12 +2155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2175,7 +2181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2184,6 +2190,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2487,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4851,7 +4858,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -4889,7 +4896,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -4927,7 +4934,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -4965,7 +4972,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5003,7 +5010,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -5041,7 +5048,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -5079,7 +5086,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -5117,7 +5124,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -5155,7 +5162,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -5193,7 +5200,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -5231,7 +5238,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -5269,7 +5276,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -5307,7 +5314,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -5345,7 +5352,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5383,7 +5390,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -5421,7 +5428,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -5459,7 +5466,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -5649,7 +5656,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -5687,7 +5694,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>425</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -5725,7 +5732,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -5763,7 +5770,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>437</v>
       </c>
       <c r="B90" s="7" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="602">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,6 +2116,94 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_098.csv</t>
+  </si>
+  <si>
+    <t>updel_099</t>
+  </si>
+  <si>
+    <t>多分区条件删除，小于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_value04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema9 where id&lt;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_100</t>
+  </si>
+  <si>
+    <t>多分区条件删除，大于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema9 where id&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_101</t>
+  </si>
+  <si>
+    <t>多分区条件更新，小于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema9 set name='Java' where id&lt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_102</t>
+  </si>
+  <si>
+    <t>多分区条件更新，大于条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema9 set amount=99.99 where id&gt;=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_099.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_100.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_101.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_102.csv</t>
   </si>
 </sst>
 </file>
@@ -2492,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4862,7 +4950,7 @@
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>305</v>
@@ -4900,7 +4988,7 @@
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>312</v>
@@ -4938,7 +5026,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>317</v>
@@ -4976,7 +5064,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>341</v>
@@ -5014,7 +5102,7 @@
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>342</v>
@@ -5052,7 +5140,7 @@
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>345</v>
@@ -5090,7 +5178,7 @@
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>346</v>
@@ -5128,7 +5216,7 @@
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>352</v>
@@ -5166,7 +5254,7 @@
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>353</v>
@@ -5204,7 +5292,7 @@
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>354</v>
@@ -5242,7 +5330,7 @@
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>355</v>
@@ -5280,7 +5368,7 @@
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>356</v>
@@ -5318,7 +5406,7 @@
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>357</v>
@@ -5356,7 +5444,7 @@
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>358</v>
@@ -5394,7 +5482,7 @@
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>359</v>
@@ -5432,7 +5520,7 @@
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>360</v>
@@ -5470,7 +5558,7 @@
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>361</v>
@@ -6119,6 +6207,150 @@
         <v>577</v>
       </c>
       <c r="L99" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="662">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2204,6 +2204,186 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_102.csv</t>
+  </si>
+  <si>
+    <t>updel_103</t>
+  </si>
+  <si>
+    <t>含有向量索引的表数据删除</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>vector_index</t>
+  </si>
+  <si>
+    <t>vector062</t>
+  </si>
+  <si>
+    <t>vector062_value1</t>
+  </si>
+  <si>
+    <t>delete from $vector062 where id&gt;10</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>select id,name from $vector062</t>
+  </si>
+  <si>
+    <t>updel_104</t>
+  </si>
+  <si>
+    <t>含有标量索引的表数据删除</t>
+  </si>
+  <si>
+    <t>scalar_index</t>
+  </si>
+  <si>
+    <t>scalar047</t>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+  </si>
+  <si>
+    <t>delete from $scalar047 where name='zhangsan' or amount=0.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>select id,name,amount,gmt from $scalar047</t>
+  </si>
+  <si>
+    <t>updel_105</t>
+  </si>
+  <si>
+    <t>更新标量索引表的索引字段</t>
+  </si>
+  <si>
+    <t>update $scalar047 set name='dingo' where id in (5,15,25)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>select id,name from $scalar047 where id in (5,15,25)</t>
+  </si>
+  <si>
+    <t>updel_106</t>
+  </si>
+  <si>
+    <t>更新标量索引表的覆盖索引字段</t>
+  </si>
+  <si>
+    <t>update $scalar047 set gmt=1234</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>select gmt from $scalar047 where gmt=1234</t>
+  </si>
+  <si>
+    <t>updel_107</t>
+  </si>
+  <si>
+    <t>带有向量索引的表更新数值标量字段</t>
+  </si>
+  <si>
+    <t>update $vector062 set amount=1234.1234 where id&lt;10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>select id,amount from $vector062 where id&lt;10</t>
+  </si>
+  <si>
+    <t>updel_108</t>
+  </si>
+  <si>
+    <t>带有向量索引的表更新字符标量字段</t>
+  </si>
+  <si>
+    <t>update $vector062 set address='beijing' where id in (10,20,30)</t>
+  </si>
+  <si>
+    <t>select id,address from $vector062 where id in (10,20,30)</t>
+  </si>
+  <si>
+    <t>updel_109</t>
+  </si>
+  <si>
+    <t>带有向量索引的表更新日期标量字段</t>
+  </si>
+  <si>
+    <t>update $vector062 set birthday='2023-09-20' where id=100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>select id,birthday from $vector062 where id=100</t>
+  </si>
+  <si>
+    <t>updel_110</t>
+  </si>
+  <si>
+    <t>更新标量索引字段值通过标量索引字段过滤</t>
+  </si>
+  <si>
+    <t>scalar055</t>
+  </si>
+  <si>
+    <t>scalar055_value1</t>
+  </si>
+  <si>
+    <t>update $scalar055 set amount=888.88 where amount=279540.148</t>
+  </si>
+  <si>
+    <t>select * from $scalar055 where amount=888.88</t>
+  </si>
+  <si>
+    <t>updel_111</t>
+  </si>
+  <si>
+    <t>更新标量索引字段值通过主键字段过滤</t>
+  </si>
+  <si>
+    <t>update $scalar055 set amount=-999.999 where id=4695</t>
+  </si>
+  <si>
+    <t>select * from $scalar055 where amount=-999.999</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_103.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_104.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_105.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_106.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_107.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_108.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_109.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_110.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_111.csv</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2279,6 +2459,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2580,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6351,6 +6532,348 @@
         <v>601</v>
       </c>
       <c r="L103" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="L112" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -2764,7 +2764,7 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5127,7 +5127,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -5203,7 +5203,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5279,7 +5279,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -5317,7 +5317,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>325</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -5355,7 +5355,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>326</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="9" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="9" t="s">
         <v>328</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -5469,7 +5469,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>331</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -5583,7 +5583,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="9" t="s">
         <v>332</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="9" t="s">
         <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5659,7 +5659,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -5697,7 +5697,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -5735,7 +5735,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>336</v>
       </c>
       <c r="B82" s="7" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -2344,9 +2344,6 @@
     <t>update $scalar055 set amount=888.88 where amount=279540.148</t>
   </si>
   <si>
-    <t>select * from $scalar055 where amount=888.88</t>
-  </si>
-  <si>
     <t>updel_111</t>
   </si>
   <si>
@@ -2384,6 +2381,10 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_111.csv</t>
+  </si>
+  <si>
+    <t>select id,name,age,gmt,price,amount,address,birthday,create_time,update_time,zip_code,is_delete from $scalar055 where amount=888.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2763,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2863,7 +2864,7 @@
       <c r="A3" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2901,7 +2902,7 @@
       <c r="A4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2939,7 +2940,7 @@
       <c r="A5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2977,7 +2978,7 @@
       <c r="A6" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3012,7 +3013,7 @@
       <c r="A7" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3047,7 +3048,7 @@
       <c r="A8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3082,7 +3083,7 @@
       <c r="A9" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3117,7 +3118,7 @@
       <c r="A10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3153,7 +3154,7 @@
       <c r="A11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3189,7 +3190,7 @@
       <c r="A12" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3225,7 +3226,7 @@
       <c r="A13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3261,7 +3262,7 @@
       <c r="A14" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3297,7 +3298,7 @@
       <c r="A15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3333,7 +3334,7 @@
       <c r="A16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3369,7 +3370,7 @@
       <c r="A17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3405,7 +3406,7 @@
       <c r="A18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3441,7 +3442,7 @@
       <c r="A19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3477,7 +3478,7 @@
       <c r="A20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3513,7 +3514,7 @@
       <c r="A21" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3549,7 +3550,7 @@
       <c r="A22" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3584,7 +3585,7 @@
       <c r="A23" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3619,7 +3620,7 @@
       <c r="A24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3654,7 +3655,7 @@
       <c r="A25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3689,7 +3690,7 @@
       <c r="A26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3724,7 +3725,7 @@
       <c r="A27" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3759,7 +3760,7 @@
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3794,7 +3795,7 @@
       <c r="A29" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3830,7 +3831,7 @@
       <c r="A30" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3866,7 +3867,7 @@
       <c r="A31" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3902,7 +3903,7 @@
       <c r="A32" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3940,7 +3941,7 @@
       <c r="A33" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3978,7 +3979,7 @@
       <c r="A34" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -4016,7 +4017,7 @@
       <c r="A35" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -4054,7 +4055,7 @@
       <c r="A36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -4092,7 +4093,7 @@
       <c r="A37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -4130,7 +4131,7 @@
       <c r="A38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -4168,7 +4169,7 @@
       <c r="A39" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -4206,7 +4207,7 @@
       <c r="A40" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -4244,7 +4245,7 @@
       <c r="A41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -4282,7 +4283,7 @@
       <c r="A42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -4320,7 +4321,7 @@
       <c r="A43" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -4358,7 +4359,7 @@
       <c r="A44" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -4396,7 +4397,7 @@
       <c r="A45" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4434,7 +4435,7 @@
       <c r="A46" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -4472,7 +4473,7 @@
       <c r="A47" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4510,7 +4511,7 @@
       <c r="A48" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -4548,7 +4549,7 @@
       <c r="A49" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -4586,7 +4587,7 @@
       <c r="A50" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -4624,7 +4625,7 @@
       <c r="A51" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -4662,7 +4663,7 @@
       <c r="A52" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -4700,7 +4701,7 @@
       <c r="A53" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -4738,7 +4739,7 @@
       <c r="A54" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -4776,7 +4777,7 @@
       <c r="A55" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -4814,7 +4815,7 @@
       <c r="A56" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4852,7 +4853,7 @@
       <c r="A57" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4890,7 +4891,7 @@
       <c r="A58" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4919,7 +4920,7 @@
       <c r="A59" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -4948,7 +4949,7 @@
       <c r="A60" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -4975,7 +4976,7 @@
       <c r="A61" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5004,7 +5005,7 @@
       <c r="A62" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -5033,7 +5034,7 @@
       <c r="A63" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5060,7 +5061,7 @@
       <c r="A64" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5095,7 +5096,7 @@
       <c r="A65" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5130,7 +5131,7 @@
       <c r="A66" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5168,7 +5169,7 @@
       <c r="A67" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -5206,7 +5207,7 @@
       <c r="A68" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -5244,7 +5245,7 @@
       <c r="A69" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -5282,7 +5283,7 @@
       <c r="A70" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -5320,7 +5321,7 @@
       <c r="A71" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -5358,7 +5359,7 @@
       <c r="A72" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -5396,7 +5397,7 @@
       <c r="A73" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -5434,7 +5435,7 @@
       <c r="A74" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -5472,7 +5473,7 @@
       <c r="A75" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
@@ -5510,7 +5511,7 @@
       <c r="A76" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -5548,7 +5549,7 @@
       <c r="A77" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -5586,7 +5587,7 @@
       <c r="A78" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -5624,7 +5625,7 @@
       <c r="A79" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="7" t="s">
@@ -5662,7 +5663,7 @@
       <c r="A80" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="7" t="s">
@@ -5700,7 +5701,7 @@
       <c r="A81" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -5738,7 +5739,7 @@
       <c r="A82" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -5776,7 +5777,7 @@
       <c r="A83" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5814,7 +5815,7 @@
       <c r="A84" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5852,7 +5853,7 @@
       <c r="A85" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5890,7 +5891,7 @@
       <c r="A86" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -5928,7 +5929,7 @@
       <c r="A87" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5966,7 +5967,7 @@
       <c r="A88" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -6004,7 +6005,7 @@
       <c r="A89" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -6042,7 +6043,7 @@
       <c r="A90" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -6080,7 +6081,7 @@
       <c r="A91" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -6115,7 +6116,7 @@
       <c r="A92" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -6150,7 +6151,7 @@
       <c r="A93" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -6185,7 +6186,7 @@
       <c r="A94" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -6220,7 +6221,7 @@
       <c r="A95" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -6255,7 +6256,7 @@
       <c r="A96" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -6290,7 +6291,7 @@
       <c r="A97" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -6325,7 +6326,7 @@
       <c r="A98" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -6360,7 +6361,7 @@
       <c r="A99" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -6395,7 +6396,7 @@
       <c r="A100" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -6431,7 +6432,7 @@
       <c r="A101" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -6467,7 +6468,7 @@
       <c r="A102" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -6503,7 +6504,7 @@
       <c r="A103" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -6567,7 +6568,7 @@
         <v>610</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L104" s="9" t="s">
         <v>19</v>
@@ -6605,7 +6606,7 @@
         <v>618</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L105" s="9" t="s">
         <v>19</v>
@@ -6643,7 +6644,7 @@
         <v>623</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L106" s="9" t="s">
         <v>19</v>
@@ -6681,7 +6682,7 @@
         <v>628</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L107" s="9" t="s">
         <v>19</v>
@@ -6719,7 +6720,7 @@
         <v>633</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L108" s="9" t="s">
         <v>19</v>
@@ -6757,7 +6758,7 @@
         <v>637</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>19</v>
@@ -6795,7 +6796,7 @@
         <v>642</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L110" s="9" t="s">
         <v>19</v>
@@ -6830,10 +6831,10 @@
         <v>641</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>19</v>
@@ -6841,13 +6842,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>649</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>650</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>604</v>
@@ -6862,16 +6863,16 @@
         <v>646</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>641</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L112" s="9" t="s">
         <v>19</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="746">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2385,6 +2385,322 @@
   <si>
     <t>select id,name,age,gmt,price,amount,address,birthday,create_time,update_time,zip_code,is_delete from $scalar055 where amount=888.88</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_112</t>
+  </si>
+  <si>
+    <t>向量表删除后后置过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixindex018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix018_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $mixindex018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age,gender,hobby,color_index$distance from vector($mixindex018, color, array[0.009107396006584167,-0.4928479492664337,-0.06084398180246353,0.11279209703207016,0.42720580101013184,-0.5535244345664978,-0.051339954137802124,0.3442928194999695,0.397807240486145,0.14437393844127655,-0.27258825302124023,0.11299128085374832,0.26662662625312805,-0.3028406798839569,-0.06034494936466217,-0.20874223113059998,0.710351824760437,0.03114473819732666,-0.10010837763547897,-0.499957799911499,-0.3172328472137451,0.18967600166797638,0.16708506643772125,-0.31831443309783936,-0.3038794696331024,0.517365038394928,-0.1310274302959442,0.6051051020622253,-0.29701799154281616,-0.11700791120529175,-0.49527180194854736,0.3499431014060974,-0.05310584604740143,0.11840163171291351,-0.6476613283157349,-0.40672868490219116,0.15504536032676697,-0.04425550997257233,-0.017758861184120178,-0.4650961756706238,-0.367722749710083,0.4912892282009125,0.15679343044757843,-1.2024909257888794,-0.6475555896759033,0.8445031642913818,-0.3021777868270874,0.0012783706188201904,-0.1028386726975441,-0.028430849313735962,0.4390820562839508,0.17291557788848877,0.02308507263660431,-0.2666246294975281,0.030758768320083618,0.3070322275161743,0.7922346591949463,0.15251073241233826,0.3876311779022217,-0.12918725609779358,0.5775445699691772,0.13809040188789368,0.3011755347251892,-0.08841019868850708,-0.2804226875305176,0.08000586181879044,0.23992058634757996,0.30137330293655396,-0.573534369468689,-0.08557131141424179,-0.009991265833377838,0.22057701647281647,-0.07465316355228424,-0.1380939483642578,0.12757709622383118,-0.1524963080883026,-0.21346122026443481,-0.21207493543624878,-0.299119770526886,-0.105656199157238,0.2978556156158447,0.27103662490844727,-0.04677818715572357,-0.25942736864089966,0.23926180601119995,0.06485702842473984,-0.2326173037290573,-0.7795956134796143,0.5515224933624268,-0.13598020374774933,-0.3016166687011719,-0.23002196848392487,-5.020496845245361,1.1768553256988525,0.04210896044969559,0.05429087206721306,-0.12462489306926727,-0.2512921392917633,0.025492563843727112,-0.014712274074554443,0.3395729660987854,0.36077940464019775,0.710265040397644,0.5866747498512268,0.3867844343185425,0.16563571989536285,-2.2621219158172607,-0.31919386982917786,-0.29929596185684204,-0.1239459365606308,-0.019464053213596344,-0.18152916431427002,0.015370100736618042,-0.39437994360923767,-0.3952904939651489,-0.17863686382770538,0.3756665587425232,0.01915770024061203,-0.0487205907702446,0.5403110980987549,0.13948170840740204,0.7490887641906738,0.218780517578125,0.21333663165569305,0.6106190085411072,-0.5787690877914429,0.005233213305473328,-0.02014821767807007,-0.37207454442977905,0.04737117886543274,0.3805462121963501,0.022129982709884644,-0.08685516566038132,0.8918148279190063,0.332944393157959,-0.17890742421150208,-0.01971307396888733,-0.49113523960113525,-0.16974413394927979,0.29028767347335815,-0.0854928120970726,-0.28040117025375366,0.27752572298049927,0.19523702561855316,-0.010701179504394531,0.41232433915138245,-0.2981152832508087,0.17831067740917206,0.23491880297660828,0.5166872143745422,0.03726338595151901,-0.09167103469371796,-0.14614176750183105,0.0835254117846489,-0.526052713394165,0.5634927749633789,0.4244139492511749,0.08627873659133911,0.11286911368370056,-0.09144455194473267,0.19640317559242249,-0.28446879982948303,-0.14722681045532227,-0.15440787374973297,0.38722527027130127,0.2799495756626129,0.2579476833343506,0.07801324129104614,-0.03614184260368347,0.2691837549209595,-0.22063779830932617,0.20414650440216064,0.290392130613327,-0.23576216399669647,0.6217473745346069,-0.36090806126594543,-0.5171005129814148,-0.0978025570511818,-0.22199128568172455,0.11597487330436707,-0.10627104341983795,0.0140666663646698,-0.3552021086215973,0.04552648216485977,0.028643697500228882,-0.2697099447250366,-0.08528557419776917,-0.3565848469734192,-0.6836068034172058,0.4241693317890167,0.3769601583480835,-0.3473547399044037,-0.28350770473480225,0.4194734990596771,0.16857166588306427,0.24369701743125916,0.7187827229499817,-0.24069659411907196,-0.612932026386261,-0.02567557990550995,0.025800958275794983,-0.2763204872608185,0.06153678894042969,0.42983344197273254,-0.27653318643569946,0.07124429941177368,-0.21047277748584747,-0.19868281483650208,-0.40652528405189514,-0.2593531012535095,0.35989561676979065,0.7571883797645569,0.6407842636108398,0.29625385999679565,0.4905804395675659,-0.11757611483335495,-0.15926161408424377,0.05945210158824921,0.9470091462135315,-0.2651394009590149,0.24507103860378265,0.012639820575714111,-0.16477082669734955,0.023227810859680176,0.3517795503139496,0.061285004019737244,0.23400992155075073,-0.004913773387670517,0.10474497079849243,0.28454095125198364,0.2646726965904236,0.056223608553409576,0.14024418592453003,0.09913889318704605,0.37895309925079346,0.4080517888069153,0.23690679669380188,-0.9799992442131042,0.6079041361808777,-0.8063328862190247,-0.18007591366767883,0.4238743185997009,0.5677311420440674,0.07879464328289032,-0.6451236009597778,0.3615572452545166,-0.6502392292022705,-0.13250525295734406,0.022514693439006805,0.23416417837142944,-0.31921306252479553,0.015400782227516174,0.3049747347831726,-0.49025920033454895,0.6232213377952576,-0.17872992157936096,0.22888170182704926,0.06563788652420044,-0.09811440110206604,0.5739450454711914,0.19145318865776062,0.19296371936798096,0.1447419375181198,0.6271354556083679,-0.40667158365249634,0.14535176753997803,0.08282049000263214,-0.2226463258266449,0.19218046963214874,0.18990464508533478,0.366453617811203,0.1181904524564743,0.31326085329055786,0.2777858078479767,0.18976512551307678,0.12058664858341217,0.3834364712238312,-0.25943732261657715,0.15866270661354065,-0.14582546055316925,0.2993849217891693,0.3625524640083313,-0.5657874345779419,0.3584221601486206,0.6659886837005615,0.5365152359008789,0.15160009264945984,-0.0038372427225112915,-0.03198322653770447,-0.41171130537986755,0.35392409563064575,0.4899391531944275,-0.44131115078926086,-0.03127241134643555,-0.08564724773168564,-0.2810729742050171,-0.1650094985961914,0.41276872158050537,-0.20266728103160858,-0.21721073985099792,0.06289903819561005,-0.1000848263502121,0.3060847520828247,-0.1798524409532547,-0.053416907787323,-0.17533081769943237,0.4803808927536011,0.6472082734107971,-0.20990946888923645,-0.08272083848714828,0.2603752315044403,0.2435430884361267,0.8928165435791016,0.04669277369976044,0.06500576436519623,0.0932016521692276,0.4320862591266632,-0.19006873667240143,-0.4583078622817993,-0.06959453225135803,0.41687387228012085,1.279518961906433,-0.09231052547693253,0.39603978395462036,0.4426204264163971,0.1414766013622284,0.14081603288650513,0.029098331928253174,-0.0008250568062067032,-0.04960125684738159,0.10457373410463333,0.5750452876091003,-0.23702768981456757,0.07400791347026825,-0.39593395590782166,0.2875250577926636,0.40632858872413635,0.4273437261581421,-0.15563148260116577,-0.1943039447069168,0.09682011604309082,0.2771073579788208,-0.17696169018745422,-0.15394936501979828,-0.028617314994335175,-0.6125500202178955,0.055850833654403687,-0.33313047885894775,-0.18644365668296814,0.05475170910358429,0.08947843313217163,-0.07653182744979858,0.09828981757164001,-0.03744521737098694,-0.09890225529670715,0.3104325830936432,0.3743216395378113,0.7847214937210083,0.22328320145606995,-0.007173389196395874,0.2743714451789856,0.3419463038444519,-0.4041624963283539,0.8219678401947021,-0.937566339969635,-0.0877365693449974,0.08319441229104996,0.519494891166687,0.14611385762691498,0.6832436919212341,0.08052428811788559,0.4532940685749054,-0.11158505082130432,0.05747853219509125,-0.03627094626426697,0.29975807666778564,0.3184080719947815,-0.15185518562793732,-0.17107611894607544,-0.26622259616851807,-0.041283462196588516,0.2775959074497223,0.5768389701843262,-0.19857929646968842,-0.383053183555603,-0.4868699014186859,0.3679580092430115,0.31410154700279236,0.45399945974349976,0.565982460975647,-0.9887039661407471,-0.5410878658294678,-0.25793322920799255,-0.4151421785354614,0.9581260085105896,0.08737964928150177,0.12770259380340576,0.17853334546089172,-0.47929897904396057,-0.18773919343948364,-0.06778784096240997,0.2790369987487793,0.3038453459739685,-0.00035012513399124146,0.21557708084583282,-0.2987268567085266,-0.37862226366996765,0.11563920229673386,0.37216106057167053,0.07540548592805862,-0.14644283056259155,0.36704716086387634,0.27644112706184387,0.23733626306056976,-0.15499460697174072,0.18270283937454224,0.286896288394928,0.0611887089908123,-0.003465220332145691,-0.44345101714134216,-0.48094767332077026,-0.05870349705219269,0.2203047126531601,0.23658716678619385,0.14524224400520325,-0.3096632957458496,-0.42239847779273987,0.14180953800678253,-1.9080333709716797,0.7268998026847839,0.21734172105789185,0.3595874309539795,-0.24850676953792572,-0.0687989890575409,-0.2876971960067749,-0.008909806609153748,0.06251184642314911,0.17282895743846893,-0.24134333431720734,-0.34526604413986206,-0.6466650366783142,0.42585867643356323,0.5730605125427246,0.02659779042005539,0.3097115755081177,0.29858189821243286,-0.07963889837265015,-0.2749827802181244,-0.03155626356601715,-0.037864506244659424,0.11886607110500336,0.0742151141166687,0.454728901386261,0.11392711102962494,-0.0018827617168426514,-0.6696452498435974,0.3057352304458618,0.18775613605976105,0.07171911001205444,0.1750405877828598,-0.2657383978366852,0.24411165714263916,0.2512362003326416,-0.10027620196342468,0.3601529002189636,0.37912803888320923,-0.06990914046764374,-0.3299768567085266,-0.125762477517128,-0.2828892767429352,0.15549014508724213,0.13161194324493408,0.39875492453575134,-0.4680383801460266,-0.13426533341407776,0.2584708333015442,0.01619536429643631,0.26572245359420776,-0.3058027923107147,0.0349903404712677,-0.5298135280609131,-0.5118231177330017,0.35788029432296753,0.25099503993988037,-0.3409276306629181,0.0350998193025589,0.12917760014533997,0.04360932856798172,0.03863629698753357,-0.12423983961343765,-0.44539687037467957,0.06586220115423203,0.29936468601226807,-0.7707462310791016,-0.130367249250412,0.18743553757667542,-0.2837158441543579,0.07794137299060822,-0.24770815670490265,0.4286563992500305,-0.13582590222358704,0.13121500611305237,-0.001750364899635315,0.3049774765968323,-0.39047953486442566,0.24318626523017883,-0.4263252913951874,0.2714003324508667,0.17210617661476135,0.6087738871574402,-0.18345880508422852,0.11825743317604065], 10) where age&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_113</t>
+  </si>
+  <si>
+    <t>表hash分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar056 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_114</t>
+  </si>
+  <si>
+    <t>表hash分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar056 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_115</t>
+  </si>
+  <si>
+    <t>表hash分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar056 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_112.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_113.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_114.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_115.csv</t>
+  </si>
+  <si>
+    <t>updel_116</t>
+  </si>
+  <si>
+    <t>标量索引hash分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar057 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_116.csv</t>
+  </si>
+  <si>
+    <t>updel_117</t>
+  </si>
+  <si>
+    <t>标量索引hash分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar057 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_117.csv</t>
+  </si>
+  <si>
+    <t>updel_118</t>
+  </si>
+  <si>
+    <t>标量索引hash分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar057 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_118.csv</t>
+  </si>
+  <si>
+    <t>updel_119</t>
+  </si>
+  <si>
+    <t>表range分区更新普通字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='Java' where id between 5 and 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_119.csv</t>
+  </si>
+  <si>
+    <t>updel_120</t>
+  </si>
+  <si>
+    <t>表range分区更新索引字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set age=100 where age between 10 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,age from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_120.csv</t>
+  </si>
+  <si>
+    <t>updel_121</t>
+  </si>
+  <si>
+    <t>表range分区删除数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id in (1,3,5,7,9,10,11,13,15,17,19,21,23,25,27,29,31,33,35,37,39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_121.csv</t>
   </si>
 </sst>
 </file>
@@ -2762,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6875,6 +7191,378 @@
         <v>660</v>
       </c>
       <c r="L112" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="L122" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="758">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2550,9 +2550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_116.csv</t>
-  </si>
-  <si>
     <t>updel_117</t>
   </si>
   <si>
@@ -2584,9 +2581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_117.csv</t>
-  </si>
-  <si>
     <t>updel_118</t>
   </si>
   <si>
@@ -2606,9 +2600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_118.csv</t>
-  </si>
-  <si>
     <t>updel_119</t>
   </si>
   <si>
@@ -2640,9 +2631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_119.csv</t>
-  </si>
-  <si>
     <t>updel_120</t>
   </si>
   <si>
@@ -2670,9 +2658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_120.csv</t>
-  </si>
-  <si>
     <t>updel_121</t>
   </si>
   <si>
@@ -2700,7 +2685,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dml/updatedelete/expectedresult/updatedelete_121.csv</t>
+    <t>updel_122</t>
+  </si>
+  <si>
+    <t>更新中文字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_value05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_123</t>
+  </si>
+  <si>
+    <t>删除中文数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $schema1 where address like '%测试%' or address='北京纯牛奶'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $schema1 set name='眼前无路想回头' where id=1 or id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,age,amount,address,birthday,create_time,update_time,is_delete from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1 where address='北京纯牛奶' or address like '%测试%' or address in ('上海虹桥')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_116.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_117.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_118.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_119.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_120.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_121.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_122.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_123.csv</t>
   </si>
 </sst>
 </file>
@@ -3078,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7374,7 +7418,7 @@
         <v>704</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="L117" s="9" t="s">
         <v>19</v>
@@ -7382,37 +7426,37 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="D118" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="F118" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>701</v>
       </c>
       <c r="H118" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="I118" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="J118" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="J118" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="K118" s="9" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="L118" s="9" t="s">
         <v>19</v>
@@ -7420,37 +7464,37 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D119" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="F119" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>701</v>
       </c>
       <c r="H119" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="J119" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="I119" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="K119" s="9" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="L119" s="9" t="s">
         <v>19</v>
@@ -7458,35 +7502,35 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="I120" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="J120" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="K120" s="9" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="L120" s="9" t="s">
         <v>19</v>
@@ -7494,37 +7538,37 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="H121" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="I121" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="J121" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="K121" s="9" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="L121" s="9" t="s">
         <v>19</v>
@@ -7532,37 +7576,107 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>701</v>
       </c>
       <c r="H122" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="I122" s="9" t="s">
+      <c r="H123" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="J122" s="9" t="s">
+      <c r="J123" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="K122" s="9" t="s">
+      <c r="B124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="L122" s="9" t="s">
+      <c r="D124" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="L124" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/mysql_updatedelete_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="811">
   <si>
     <t>Expected_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Component</t>
-  </si>
-  <si>
-    <t>Sub_component</t>
   </si>
   <si>
     <t>Table_schema_ref</t>
@@ -2745,6 +2742,206 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_123.csv</t>
+  </si>
+  <si>
+    <t>主键等值逻辑与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键等值逻辑或删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑与删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑或删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from $scalar058 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键等值逻辑与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键等值逻辑或更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑与更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列等值逻辑或更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updel_124</t>
+  </si>
+  <si>
+    <t>updel_125</t>
+  </si>
+  <si>
+    <t>updel_126</t>
+  </si>
+  <si>
+    <t>updel_127</t>
+  </si>
+  <si>
+    <t>updel_128</t>
+  </si>
+  <si>
+    <t>updel_129</t>
+  </si>
+  <si>
+    <t>updel_130</t>
+  </si>
+  <si>
+    <t>updel_131</t>
+  </si>
+  <si>
+    <t>Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_124.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_125.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_126.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_127.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_128.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_129.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_130.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/updatedelete/expectedresult/updatedelete_131.csv</t>
+  </si>
+  <si>
+    <t>select id,age from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $scalar058 where id=8 or id=28 or id=18 or id=38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $scalar058 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='888' where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age,name from $scalar058 where id=8 and id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='888' where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name,id from $scalar058 where id=8 or id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='888' where age=-18 and age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name,age from $scalar058 where age=-18 and age=18 and name='888'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update $scalar058 set name='888' where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $scalar058 where age=-18 or age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2793,7 +2990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2819,8 +3016,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3122,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3158,4526 +3355,4822 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>227</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>228</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>229</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>230</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>231</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>232</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>233</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>234</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
+        <v>235</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
+        <v>236</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>237</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>238</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>239</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>11</v>
+        <v>240</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
+        <v>241</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
+        <v>242</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>11</v>
+        <v>243</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
+        <v>244</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>245</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
+        <v>246</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>11</v>
+        <v>247</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>11</v>
+        <v>248</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
+        <v>249</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>11</v>
+        <v>250</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>11</v>
+        <v>251</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>11</v>
+        <v>252</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>11</v>
+        <v>253</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>11</v>
+        <v>255</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>11</v>
+        <v>256</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>11</v>
+        <v>257</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>11</v>
+        <v>258</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>11</v>
+        <v>259</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
+        <v>260</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>11</v>
+        <v>261</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>11</v>
+        <v>262</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>11</v>
+        <v>263</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F40" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>11</v>
+        <v>265</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>11</v>
+        <v>266</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F42" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J42" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>11</v>
+        <v>267</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="K43" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>11</v>
+        <v>268</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>11</v>
+        <v>269</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>11</v>
+        <v>271</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="K47" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>11</v>
+        <v>272</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>11</v>
+        <v>273</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="J49" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>11</v>
+        <v>274</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="J50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>11</v>
+        <v>275</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>11</v>
+        <v>276</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F52" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>11</v>
+        <v>277</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F53" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="J53" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>11</v>
+        <v>278</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="J54" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>11</v>
+        <v>279</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>11</v>
+        <v>280</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="K56" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>11</v>
+        <v>281</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F57" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="K57" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>11</v>
+        <v>283</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="L60" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>11</v>
+        <v>285</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>11</v>
+        <v>286</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="L63" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="K64" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="B66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="L66" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="G67" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="H72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="7" t="s">
+      <c r="F73" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="F74" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="J75" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="F76" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="F77" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="F78" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="F79" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="J80" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="F81" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J79" s="7" t="s">
+      <c r="F82" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K79" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K81" s="7" t="s">
+      <c r="K82" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="L82" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="K83" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="K84" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>11</v>
+        <v>410</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="H85" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="K85" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="G86" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K86" s="7" t="s">
+      <c r="B87" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K87" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+      <c r="L87" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="D88" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="H88" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J88" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="B89" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K88" s="7" t="s">
+      <c r="F89" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="L89" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B90" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D90" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="I90" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K90" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>568</v>
-      </c>
       <c r="L90" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>11</v>
+        <v>449</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>11</v>
+        <v>450</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="K92" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>11</v>
+        <v>451</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="J93" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="K93" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>11</v>
+        <v>452</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>11</v>
+        <v>453</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="K95" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>11</v>
+        <v>454</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="J96" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="K96" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>11</v>
+        <v>474</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H97" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="J97" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>11</v>
+        <v>475</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="J98" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H99" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="I99" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="J99" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="J100" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="K100" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>587</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="H101" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I101" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="J101" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>591</v>
-      </c>
       <c r="D102" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="H102" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>593</v>
-      </c>
       <c r="J102" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>595</v>
-      </c>
       <c r="D103" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="H103" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I103" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="J103" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K103" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="L103" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A104" s="9" t="s">
+      <c r="B104" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="G104" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="H104" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="I104" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="J104" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="K104" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="K104" s="9" t="s">
+      <c r="B105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="L104" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A105" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="L105" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="F106" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A106" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="F108" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="H106" s="9" t="s">
+      <c r="F109" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="I106" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A107" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="D107" s="9" t="s">
+      <c r="J109" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="K107" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="L107" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A108" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E108" s="9" t="s">
+      <c r="F110" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="G110" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="G108" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="L108" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A109" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="K109" s="9" t="s">
+      <c r="H110" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="K110" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="L109" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A110" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="H110" s="9" t="s">
+      <c r="L110" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="I111" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="I110" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="K110" s="9" t="s">
+      <c r="J111" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="K111" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="L110" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A111" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="L111" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F111" s="9" t="s">
+      <c r="G112" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="J111" s="9" t="s">
+      <c r="H112" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A112" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A113" s="9" t="s">
+      <c r="B113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="G113" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="H113" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="I113" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="J113" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="K113" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="B114" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="K114" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="L113" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A114" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="D114" s="9" t="s">
+      <c r="L114" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
+      <c r="G115" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="K114" s="9" t="s">
+      <c r="H115" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="K115" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="L114" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A115" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="L115" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="K115" s="9" t="s">
+      <c r="H116" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="L115" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A116" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="K116" s="9" t="s">
+      <c r="L116" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="L116" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117" s="9" t="s">
+      <c r="B117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="G117" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="H117" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="I117" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="J117" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="J117" s="9" t="s">
+      <c r="K117" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="B118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="K118" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="L117" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A118" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="L118" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="F119" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="K118" s="9" t="s">
+      <c r="G119" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="K119" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="L118" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A119" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="J119" s="9" t="s">
+      <c r="L119" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="B120" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="K120" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="L119" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A120" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D120" s="9" t="s">
+      <c r="L120" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
+      <c r="G121" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="K120" s="9" t="s">
+      <c r="H121" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="K121" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="L120" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A121" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="J121" s="9" t="s">
+      <c r="L121" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="B122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="K122" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A122" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="L122" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="K122" s="9" t="s">
+      <c r="F123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="L122" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A123" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="L123" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="1" t="s">
+      <c r="H124" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="J123" s="1" t="s">
+      <c r="J124" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K124" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A124" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="K124" s="9" t="s">
+      <c r="L124" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="L124" s="9" t="s">
-        <v>19</v>
+      <c r="D125" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
